--- a/Base/Backlog_21.xlsx
+++ b/Base/Backlog_21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A80E457-912C-463E-8B1F-9B90FB994274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C566F-7436-4D56-9AEB-816CF03CBE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -172,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +182,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -270,6 +282,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -747,143 +779,143 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="9">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10">
-        <v>45803</v>
-      </c>
-      <c r="F5" s="10">
-        <v>45807</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="C5" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="22">
+        <v>21</v>
+      </c>
+      <c r="E5" s="23">
+        <v>45803</v>
+      </c>
+      <c r="F5" s="23">
+        <v>45807</v>
+      </c>
+      <c r="G5" s="22">
         <v>335913</v>
       </c>
-      <c r="H5" s="11">
-        <v>45778</v>
-      </c>
-      <c r="I5" s="10">
-        <v>45803</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="H5" s="24">
+        <v>45778</v>
+      </c>
+      <c r="I5" s="23">
+        <v>45803</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="9">
-        <v>21</v>
-      </c>
-      <c r="E6" s="10">
-        <v>45803</v>
-      </c>
-      <c r="F6" s="10">
-        <v>45807</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="C6" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="22">
+        <v>21</v>
+      </c>
+      <c r="E6" s="23">
+        <v>45803</v>
+      </c>
+      <c r="F6" s="23">
+        <v>45807</v>
+      </c>
+      <c r="G6" s="22">
         <v>336067</v>
       </c>
-      <c r="H6" s="11">
-        <v>45778</v>
-      </c>
-      <c r="I6" s="10">
-        <v>45803</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="H6" s="24">
+        <v>45778</v>
+      </c>
+      <c r="I6" s="23">
+        <v>45803</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="9">
-        <v>21</v>
-      </c>
-      <c r="E7" s="10">
-        <v>45803</v>
-      </c>
-      <c r="F7" s="10">
-        <v>45807</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="C7" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="22">
+        <v>21</v>
+      </c>
+      <c r="E7" s="23">
+        <v>45803</v>
+      </c>
+      <c r="F7" s="23">
+        <v>45807</v>
+      </c>
+      <c r="G7" s="22">
         <v>335182</v>
       </c>
-      <c r="H7" s="11">
-        <v>45778</v>
-      </c>
-      <c r="I7" s="10">
-        <v>45803</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="H7" s="24">
+        <v>45778</v>
+      </c>
+      <c r="I7" s="23">
+        <v>45803</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="9">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10">
-        <v>45803</v>
-      </c>
-      <c r="F8" s="10">
-        <v>45807</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="C8" s="26">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="26">
+        <v>21</v>
+      </c>
+      <c r="E8" s="27">
+        <v>45803</v>
+      </c>
+      <c r="F8" s="27">
+        <v>45807</v>
+      </c>
+      <c r="G8" s="26">
         <v>331865</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="28">
         <v>45748</v>
       </c>
-      <c r="I8" s="10">
-        <v>45803</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="I8" s="27">
+        <v>45803</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="26" t="s">
         <v>11</v>
       </c>
     </row>
@@ -957,108 +989,108 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D11" s="9">
-        <v>21</v>
-      </c>
-      <c r="E11" s="10">
-        <v>45803</v>
-      </c>
-      <c r="F11" s="10">
-        <v>45807</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="C11" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D11" s="22">
+        <v>21</v>
+      </c>
+      <c r="E11" s="23">
+        <v>45803</v>
+      </c>
+      <c r="F11" s="23">
+        <v>45807</v>
+      </c>
+      <c r="G11" s="22">
         <v>334368</v>
       </c>
-      <c r="H11" s="11">
-        <v>45778</v>
-      </c>
-      <c r="I11" s="10">
-        <v>45803</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="9" t="s">
+      <c r="H11" s="24">
+        <v>45778</v>
+      </c>
+      <c r="I11" s="23">
+        <v>45803</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D12" s="9">
-        <v>21</v>
-      </c>
-      <c r="E12" s="10">
-        <v>45803</v>
-      </c>
-      <c r="F12" s="10">
-        <v>45807</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="C12" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D12" s="22">
+        <v>21</v>
+      </c>
+      <c r="E12" s="23">
+        <v>45803</v>
+      </c>
+      <c r="F12" s="23">
+        <v>45807</v>
+      </c>
+      <c r="G12" s="22">
         <v>335557</v>
       </c>
-      <c r="H12" s="11">
-        <v>45778</v>
-      </c>
-      <c r="I12" s="10">
-        <v>45803</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="H12" s="24">
+        <v>45778</v>
+      </c>
+      <c r="I12" s="23">
+        <v>45803</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D13" s="9">
-        <v>21</v>
-      </c>
-      <c r="E13" s="10">
-        <v>45803</v>
-      </c>
-      <c r="F13" s="10">
-        <v>45807</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="C13" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D13" s="22">
+        <v>21</v>
+      </c>
+      <c r="E13" s="23">
+        <v>45803</v>
+      </c>
+      <c r="F13" s="23">
+        <v>45807</v>
+      </c>
+      <c r="G13" s="22">
         <v>335723</v>
       </c>
-      <c r="H13" s="11">
-        <v>45778</v>
-      </c>
-      <c r="I13" s="10">
-        <v>45803</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="9" t="s">
+      <c r="H13" s="24">
+        <v>45778</v>
+      </c>
+      <c r="I13" s="23">
+        <v>45803</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1132,38 +1164,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D16" s="9">
-        <v>21</v>
-      </c>
-      <c r="E16" s="10">
-        <v>45803</v>
-      </c>
-      <c r="F16" s="10">
-        <v>45807</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="C16" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D16" s="22">
+        <v>21</v>
+      </c>
+      <c r="E16" s="23">
+        <v>45803</v>
+      </c>
+      <c r="F16" s="23">
+        <v>45807</v>
+      </c>
+      <c r="G16" s="22">
         <v>334444</v>
       </c>
-      <c r="H16" s="11">
-        <v>45778</v>
-      </c>
-      <c r="I16" s="10">
-        <v>45803</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="9" t="s">
+      <c r="H16" s="24">
+        <v>45778</v>
+      </c>
+      <c r="I16" s="23">
+        <v>45803</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1651,7 +1683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1847,11 +1879,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1">
-      <sortCondition ref="G1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J1" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Base/Backlog_21.xlsx
+++ b/Base/Backlog_21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C566F-7436-4D56-9AEB-816CF03CBE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F0B3BC-09BE-4317-BFDB-6580A19E5C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
   <si>
     <t>Backlog</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Jose Acevedo</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,18 +185,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,26 +273,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +590,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -779,143 +750,143 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="22">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="22">
-        <v>21</v>
-      </c>
-      <c r="E5" s="23">
-        <v>45803</v>
-      </c>
-      <c r="F5" s="23">
-        <v>45807</v>
-      </c>
-      <c r="G5" s="22">
+      <c r="C5" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="9">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10">
+        <v>45803</v>
+      </c>
+      <c r="F5" s="10">
+        <v>45807</v>
+      </c>
+      <c r="G5" s="9">
         <v>335913</v>
       </c>
-      <c r="H5" s="24">
-        <v>45778</v>
-      </c>
-      <c r="I5" s="23">
-        <v>45803</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="H5" s="11">
+        <v>45778</v>
+      </c>
+      <c r="I5" s="10">
+        <v>45803</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="9">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10">
+        <v>45803</v>
+      </c>
+      <c r="F6" s="10">
+        <v>45807</v>
+      </c>
+      <c r="G6" s="9">
+        <v>336067</v>
+      </c>
+      <c r="H6" s="11">
+        <v>45778</v>
+      </c>
+      <c r="I6" s="10">
+        <v>45803</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="9">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10">
+        <v>45803</v>
+      </c>
+      <c r="F7" s="10">
+        <v>45807</v>
+      </c>
+      <c r="G7" s="9">
+        <v>335182</v>
+      </c>
+      <c r="H7" s="11">
+        <v>45778</v>
+      </c>
+      <c r="I7" s="10">
+        <v>45803</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="9">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45803</v>
+      </c>
+      <c r="F8" s="10">
+        <v>45807</v>
+      </c>
+      <c r="G8" s="9">
+        <v>331865</v>
+      </c>
+      <c r="H8" s="11">
+        <v>45748</v>
+      </c>
+      <c r="I8" s="10">
+        <v>45803</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="22">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="22">
-        <v>21</v>
-      </c>
-      <c r="E6" s="23">
-        <v>45803</v>
-      </c>
-      <c r="F6" s="23">
-        <v>45807</v>
-      </c>
-      <c r="G6" s="22">
-        <v>336067</v>
-      </c>
-      <c r="H6" s="24">
-        <v>45778</v>
-      </c>
-      <c r="I6" s="23">
-        <v>45803</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="22">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="22">
-        <v>21</v>
-      </c>
-      <c r="E7" s="23">
-        <v>45803</v>
-      </c>
-      <c r="F7" s="23">
-        <v>45807</v>
-      </c>
-      <c r="G7" s="22">
-        <v>335182</v>
-      </c>
-      <c r="H7" s="24">
-        <v>45778</v>
-      </c>
-      <c r="I7" s="23">
-        <v>45803</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="26">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="26">
-        <v>21</v>
-      </c>
-      <c r="E8" s="27">
-        <v>45803</v>
-      </c>
-      <c r="F8" s="27">
-        <v>45807</v>
-      </c>
-      <c r="G8" s="26">
-        <v>331865</v>
-      </c>
-      <c r="H8" s="28">
-        <v>45748</v>
-      </c>
-      <c r="I8" s="27">
-        <v>45803</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -989,108 +960,108 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="22">
-        <v>2025</v>
-      </c>
-      <c r="D11" s="22">
-        <v>21</v>
-      </c>
-      <c r="E11" s="23">
-        <v>45803</v>
-      </c>
-      <c r="F11" s="23">
-        <v>45807</v>
-      </c>
-      <c r="G11" s="22">
+      <c r="C11" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D11" s="9">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10">
+        <v>45803</v>
+      </c>
+      <c r="F11" s="10">
+        <v>45807</v>
+      </c>
+      <c r="G11" s="9">
         <v>334368</v>
       </c>
-      <c r="H11" s="24">
-        <v>45778</v>
-      </c>
-      <c r="I11" s="23">
-        <v>45803</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="22" t="s">
+      <c r="H11" s="11">
+        <v>45778</v>
+      </c>
+      <c r="I11" s="10">
+        <v>45803</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="22">
-        <v>2025</v>
-      </c>
-      <c r="D12" s="22">
-        <v>21</v>
-      </c>
-      <c r="E12" s="23">
-        <v>45803</v>
-      </c>
-      <c r="F12" s="23">
-        <v>45807</v>
-      </c>
-      <c r="G12" s="22">
+      <c r="C12" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D12" s="9">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10">
+        <v>45803</v>
+      </c>
+      <c r="F12" s="10">
+        <v>45807</v>
+      </c>
+      <c r="G12" s="9">
         <v>335557</v>
       </c>
-      <c r="H12" s="24">
-        <v>45778</v>
-      </c>
-      <c r="I12" s="23">
-        <v>45803</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="22" t="s">
+      <c r="H12" s="11">
+        <v>45778</v>
+      </c>
+      <c r="I12" s="10">
+        <v>45803</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="22">
-        <v>2025</v>
-      </c>
-      <c r="D13" s="22">
-        <v>21</v>
-      </c>
-      <c r="E13" s="23">
-        <v>45803</v>
-      </c>
-      <c r="F13" s="23">
-        <v>45807</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="C13" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D13" s="9">
+        <v>21</v>
+      </c>
+      <c r="E13" s="10">
+        <v>45803</v>
+      </c>
+      <c r="F13" s="10">
+        <v>45807</v>
+      </c>
+      <c r="G13" s="9">
         <v>335723</v>
       </c>
-      <c r="H13" s="24">
-        <v>45778</v>
-      </c>
-      <c r="I13" s="23">
-        <v>45803</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="22" t="s">
+      <c r="H13" s="11">
+        <v>45778</v>
+      </c>
+      <c r="I13" s="10">
+        <v>45803</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1164,38 +1135,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22">
-        <v>2025</v>
-      </c>
-      <c r="D16" s="22">
-        <v>21</v>
-      </c>
-      <c r="E16" s="23">
-        <v>45803</v>
-      </c>
-      <c r="F16" s="23">
-        <v>45807</v>
-      </c>
-      <c r="G16" s="22">
+      <c r="C16" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D16" s="9">
+        <v>21</v>
+      </c>
+      <c r="E16" s="10">
+        <v>45803</v>
+      </c>
+      <c r="F16" s="10">
+        <v>45807</v>
+      </c>
+      <c r="G16" s="9">
         <v>334444</v>
       </c>
-      <c r="H16" s="24">
-        <v>45778</v>
-      </c>
-      <c r="I16" s="23">
-        <v>45803</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="22" t="s">
+      <c r="H16" s="11">
+        <v>45778</v>
+      </c>
+      <c r="I16" s="10">
+        <v>45803</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1767,7 +1738,7 @@
         <v>45803</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>15</v>
@@ -1802,7 +1773,7 @@
         <v>45803</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>15</v>
@@ -1837,7 +1808,7 @@
         <v>45803</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>15</v>

--- a/Base/Backlog_21.xlsx
+++ b/Base/Backlog_21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F0B3BC-09BE-4317-BFDB-6580A19E5C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC3E1E0-9798-4DB0-A88E-8CF1414680C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>Erick da Silva</t>
   </si>
   <si>
-    <t>Higor Pratz</t>
-  </si>
-  <si>
     <t>Clanderson de Oliveira</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Higor Cruz</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="9">
         <v>2025</v>
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="9">
         <v>2025</v>
@@ -779,7 +779,7 @@
         <v>45803</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>11</v>
@@ -814,7 +814,7 @@
         <v>45803</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>11</v>
@@ -849,7 +849,7 @@
         <v>45803</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>11</v>
@@ -989,7 +989,7 @@
         <v>45803</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>45803</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9">
         <v>2025</v>
@@ -1059,7 +1059,7 @@
         <v>45803</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>11</v>
@@ -1070,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="9">
         <v>2025</v>
@@ -1105,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="9">
         <v>2025</v>
@@ -1164,7 +1164,7 @@
         <v>45803</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>11</v>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C2" s="9">
         <v>2025</v>
@@ -1738,7 +1738,7 @@
         <v>45803</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>15</v>
@@ -1749,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" s="9">
         <v>2025</v>
@@ -1773,7 +1773,7 @@
         <v>45803</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>15</v>
@@ -1784,7 +1784,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9">
         <v>2025</v>
@@ -1808,7 +1808,7 @@
         <v>45803</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>15</v>
@@ -1819,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9">
         <v>2025</v>
